--- a/NewCo/BG RadarChart/df_mtd_bg_score.xlsx
+++ b/NewCo/BG RadarChart/df_mtd_bg_score.xlsx
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10451238188.03491</v>
+        <v>10451017511.84491</v>
       </c>
       <c r="F2" t="n">
         <v>10752092636.41424</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8801617177923085</v>
+        <v>0.8801441404864132</v>
       </c>
       <c r="H2" t="n">
         <v>0.91</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9672106788926467</v>
+        <v>0.9671913631718826</v>
       </c>
       <c r="J2" t="n">
-        <v>3.672106788926467</v>
+        <v>3.671913631718826</v>
       </c>
     </row>
     <row r="3">
@@ -543,22 +543,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1398681820.797707</v>
+        <v>1398660645.357707</v>
       </c>
       <c r="F3" t="n">
         <v>1480887985.012802</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8426096853027205</v>
+        <v>0.8425982823756414</v>
       </c>
       <c r="H3" t="n">
         <v>0.89</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9467524553963151</v>
+        <v>0.9467396431186982</v>
       </c>
       <c r="J3" t="n">
-        <v>3.467524553963151</v>
+        <v>3.467396431186982</v>
       </c>
     </row>
     <row r="4">
@@ -581,22 +581,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1895003799.685365</v>
+        <v>1894857193.363029</v>
       </c>
       <c r="F4" t="n">
         <v>1986501580.724028</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8628635576321703</v>
+        <v>0.8628103836673714</v>
       </c>
       <c r="H4" t="n">
         <v>0.89</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9695096153170453</v>
+        <v>0.9694498692891813</v>
       </c>
       <c r="J4" t="n">
-        <v>3.695096153170453</v>
+        <v>3.694498692891813</v>
       </c>
     </row>
     <row r="5">
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1641762484.601154</v>
+        <v>1641746897.863397</v>
       </c>
       <c r="F5" t="n">
         <v>1693843944.000998</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8607609285161233</v>
+        <v>0.8607533125342132</v>
       </c>
       <c r="H5" t="n">
         <v>0.89</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9671471106922733</v>
+        <v>0.9671385534092283</v>
       </c>
       <c r="J5" t="n">
-        <v>3.671471106922733</v>
+        <v>3.671385534092283</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1093880715.177304</v>
+        <v>1093874264.537304</v>
       </c>
       <c r="F6" t="n">
         <v>1111649590.216521</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8727656044750116</v>
+        <v>0.8727603280452512</v>
       </c>
       <c r="H6" t="n">
         <v>0.89</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9806355106460805</v>
+        <v>0.9806295820733159</v>
       </c>
       <c r="J6" t="n">
-        <v>3.806355106460805</v>
+        <v>3.806295820733158</v>
       </c>
     </row>
     <row r="7">
@@ -695,22 +695,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>905547877.0862101</v>
+        <v>905537541.07621</v>
       </c>
       <c r="F7" t="n">
         <v>953878056.2222627</v>
       </c>
       <c r="G7" t="n">
-        <v>0.84618122270132</v>
+        <v>0.8461719290673612</v>
       </c>
       <c r="H7" t="n">
         <v>0.89</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9507654187655281</v>
+        <v>0.950754976480181</v>
       </c>
       <c r="J7" t="n">
-        <v>3.507654187655281</v>
+        <v>3.50754976480181</v>
       </c>
     </row>
     <row r="8">
@@ -733,22 +733,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>812204245.5754238</v>
+        <v>812200790.3054239</v>
       </c>
       <c r="F8" t="n">
         <v>840061170.4451649</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8629074843005611</v>
+        <v>0.8629039105207736</v>
       </c>
       <c r="H8" t="n">
         <v>0.89</v>
       </c>
       <c r="I8" t="n">
-        <v>0.969558971124226</v>
+        <v>0.9695549556413187</v>
       </c>
       <c r="J8" t="n">
-        <v>3.695589711242259</v>
+        <v>3.695549556413186</v>
       </c>
     </row>
     <row r="9">
@@ -771,22 +771,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1207613182.23963</v>
+        <v>1207600496.95963</v>
       </c>
       <c r="F9" t="n">
         <v>1249345571.312311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8571770902663352</v>
+        <v>0.8571686962019737</v>
       </c>
       <c r="H9" t="n">
         <v>0.89</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9631203261419496</v>
+        <v>0.9631108946089592</v>
       </c>
       <c r="J9" t="n">
-        <v>3.631203261419496</v>
+        <v>3.631108946089591</v>
       </c>
     </row>
     <row r="10">
@@ -809,22 +809,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>953280241.1514901</v>
+        <v>953276869.7114902</v>
       </c>
       <c r="F10" t="n">
         <v>975924740.8770204</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8635915020783473</v>
+        <v>0.8635884263464539</v>
       </c>
       <c r="H10" t="n">
         <v>0.89</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9703275304251093</v>
+        <v>0.9703240745465774</v>
       </c>
       <c r="J10" t="n">
-        <v>3.703275304251093</v>
+        <v>3.703240745465774</v>
       </c>
     </row>
     <row r="11">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>45241417.59189215</v>
+        <v>45240757.70189214</v>
       </c>
       <c r="F11" t="n">
         <v>65441520.20819696</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6273564507577207</v>
+        <v>0.6273494516214179</v>
       </c>
       <c r="H11" t="n">
         <v>0.89</v>
       </c>
       <c r="I11" t="n">
-        <v>0.704894888491821</v>
+        <v>0.704887024293728</v>
       </c>
       <c r="J11" t="n">
-        <v>1.048948884918211</v>
+        <v>1.04887024293728</v>
       </c>
     </row>
     <row r="12">
@@ -885,22 +885,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>108676443.8975404</v>
+        <v>108675060.2075404</v>
       </c>
       <c r="F12" t="n">
         <v>114616555.7463936</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8499399942431075</v>
+        <v>0.8499302279622091</v>
       </c>
       <c r="H12" t="n">
         <v>0.89</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9549887575765252</v>
+        <v>0.9549777842272011</v>
       </c>
       <c r="J12" t="n">
-        <v>3.549887575765252</v>
+        <v>3.549777842272011</v>
       </c>
     </row>
     <row r="13">
@@ -923,22 +923,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>104139726.3195949</v>
+        <v>104139666.8195949</v>
       </c>
       <c r="F13" t="n">
         <v>133946029.6669483</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7411110753401624</v>
+        <v>0.7411108084403393</v>
       </c>
       <c r="H13" t="n">
         <v>0.89</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8327090734159128</v>
+        <v>0.8327087735284711</v>
       </c>
       <c r="J13" t="n">
-        <v>2.327090734159128</v>
+        <v>2.32708773528471</v>
       </c>
     </row>
     <row r="14">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>116570312.1324472</v>
+        <v>116567180.7824472</v>
       </c>
       <c r="F14" t="n">
         <v>121486198.8817276</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8488767217125175</v>
+        <v>0.8488574815267661</v>
       </c>
       <c r="H14" t="n">
         <v>0.89</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9537940693399073</v>
+        <v>0.9537724511536697</v>
       </c>
       <c r="J14" t="n">
-        <v>3.537940693399073</v>
+        <v>3.537724511536697</v>
       </c>
     </row>
     <row r="15">
@@ -999,22 +999,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>113640933.7053218</v>
+        <v>113637821.0953218</v>
       </c>
       <c r="F15" t="n">
         <v>115784817.3576756</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8963057211304053</v>
+        <v>0.8962854022944582</v>
       </c>
       <c r="H15" t="n">
         <v>0.89</v>
       </c>
       <c r="I15" t="n">
-        <v>1.007085079921804</v>
+        <v>1.007062249769054</v>
       </c>
       <c r="J15" t="n">
-        <v>4.035425399609018</v>
+        <v>4.035311248845272</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>158777281.5397714</v>
+        <v>158776160.6497714</v>
       </c>
       <c r="F16" t="n">
         <v>101309029.8253191</v>
@@ -1075,19 +1075,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24046261.63630852</v>
+        <v>24046822.38397208</v>
       </c>
       <c r="F17" t="n">
         <v>51931549.16588117</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4456682638546555</v>
+        <v>0.4456824228413132</v>
       </c>
       <c r="H17" t="n">
         <v>0.89</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5007508582636578</v>
+        <v>0.5007667672374305</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1113,22 +1113,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>119851529.249519</v>
+        <v>119850755.489519</v>
       </c>
       <c r="F18" t="n">
         <v>127572785.6647403</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8807078598635673</v>
+        <v>0.8807036345361159</v>
       </c>
       <c r="H18" t="n">
         <v>0.89</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9895593931051317</v>
+        <v>0.9895546455461977</v>
       </c>
       <c r="J18" t="n">
-        <v>3.895593931051318</v>
+        <v>3.895546455461977</v>
       </c>
     </row>
     <row r="19">
@@ -1151,22 +1151,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>73580081.28036755</v>
+        <v>73579263.62036756</v>
       </c>
       <c r="F19" t="n">
         <v>83710895.56971741</v>
       </c>
       <c r="G19" t="n">
-        <v>0.791780382856879</v>
+        <v>0.7917729655501642</v>
       </c>
       <c r="H19" t="n">
         <v>0.89</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8896408796144708</v>
+        <v>0.8896325455619822</v>
       </c>
       <c r="J19" t="n">
-        <v>2.896408796144708</v>
+        <v>2.896325455619822</v>
       </c>
     </row>
     <row r="20">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>65774899.86383907</v>
+        <v>65773058.69383907</v>
       </c>
       <c r="F20" t="n">
         <v>84864949.28759821</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6985070494550412</v>
+        <v>0.6984915905717513</v>
       </c>
       <c r="H20" t="n">
         <v>0.89</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7848393814101586</v>
+        <v>0.7848220118783722</v>
       </c>
       <c r="J20" t="n">
-        <v>1.848393814101586</v>
+        <v>1.848220118783721</v>
       </c>
     </row>
     <row r="21">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>57642189.38281003</v>
+        <v>57640226.80281003</v>
       </c>
       <c r="F21" t="n">
         <v>79126676.59130746</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6420835972060593</v>
+        <v>0.6420648010494266</v>
       </c>
       <c r="H21" t="n">
         <v>0.89</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7214422440517521</v>
+        <v>0.7214211247746367</v>
       </c>
       <c r="J21" t="n">
-        <v>1.214422440517521</v>
+        <v>1.214211247746367</v>
       </c>
     </row>
     <row r="22">
@@ -1265,22 +1265,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>94553842.92375007</v>
+        <v>94552107.07375008</v>
       </c>
       <c r="F22" t="n">
         <v>102407909.0741526</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8021313505688017</v>
+        <v>0.8021182306554312</v>
       </c>
       <c r="H22" t="n">
         <v>0.89</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9012711804143839</v>
+        <v>0.9012564389386867</v>
       </c>
       <c r="J22" t="n">
-        <v>3.012711804143839</v>
+        <v>3.012564389386867</v>
       </c>
     </row>
     <row r="23">
@@ -1303,22 +1303,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>101390701.9844331</v>
+        <v>101389870.9944331</v>
       </c>
       <c r="F23" t="n">
         <v>107375831.9343493</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8388693738359599</v>
+        <v>0.8388632193773167</v>
       </c>
       <c r="H23" t="n">
         <v>0.89</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9425498582426516</v>
+        <v>0.9425429431205805</v>
       </c>
       <c r="J23" t="n">
-        <v>3.425498582426516</v>
+        <v>3.425429431205805</v>
       </c>
     </row>
     <row r="24">
@@ -1341,22 +1341,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103969363.2973795</v>
+        <v>103967209.6673795</v>
       </c>
       <c r="F24" t="n">
         <v>110720997.7260034</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8354076809028737</v>
+        <v>0.8353922545233268</v>
       </c>
       <c r="H24" t="n">
         <v>0.89</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9386603156212063</v>
+        <v>0.9386429826104795</v>
       </c>
       <c r="J24" t="n">
-        <v>3.386603156212063</v>
+        <v>3.386429826104795</v>
       </c>
     </row>
     <row r="25">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>62562227.39125193</v>
+        <v>62561516.29125193</v>
       </c>
       <c r="F25" t="n">
         <v>82290069.85855715</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6745305453912105</v>
+        <v>0.6745238466339174</v>
       </c>
       <c r="H25" t="n">
         <v>0.89</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7578994892036073</v>
+        <v>0.7578919625100196</v>
       </c>
       <c r="J25" t="n">
-        <v>1.578994892036073</v>
+        <v>1.578919625100196</v>
       </c>
     </row>
     <row r="26">
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>182903040.6274985</v>
+        <v>182790550.8674985</v>
       </c>
       <c r="F26" t="n">
         <v>173610849.4068834</v>
       </c>
       <c r="G26" t="n">
-        <v>0.952857345589931</v>
+        <v>0.9524265235341003</v>
       </c>
       <c r="H26" t="n">
         <v>0.89</v>
       </c>
       <c r="I26" t="n">
-        <v>1.070626230999922</v>
+        <v>1.07014216127427</v>
       </c>
       <c r="J26" t="n">
-        <v>4.353131154999612</v>
+        <v>4.35071080637135</v>
       </c>
     </row>
     <row r="27">
@@ -1455,22 +1455,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>151782591.4473666</v>
+        <v>151777387.2373666</v>
       </c>
       <c r="F27" t="n">
         <v>148270364.1680665</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8985295114482562</v>
+        <v>0.8985045973316412</v>
       </c>
       <c r="H27" t="n">
         <v>0.89</v>
       </c>
       <c r="I27" t="n">
-        <v>1.009583720728378</v>
+        <v>1.009555727338923</v>
       </c>
       <c r="J27" t="n">
-        <v>4.047918603641889</v>
+        <v>4.047778636694614</v>
       </c>
     </row>
     <row r="28">
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>76923667.48740758</v>
+        <v>76921533.55740757</v>
       </c>
       <c r="F28" t="n">
         <v>88303228.6697728</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7811007390877415</v>
+        <v>0.7810826276489662</v>
       </c>
       <c r="H28" t="n">
         <v>0.89</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8776412798738668</v>
+        <v>0.8776209299426586</v>
       </c>
       <c r="J28" t="n">
-        <v>2.776412798738667</v>
+        <v>2.776209299426586</v>
       </c>
     </row>
     <row r="29">
@@ -1531,22 +1531,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>108418374.5720327</v>
+        <v>108413619.8420327</v>
       </c>
       <c r="F29" t="n">
         <v>114270777.0167739</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8565579392436997</v>
+        <v>0.8565270514175951</v>
       </c>
       <c r="H29" t="n">
         <v>0.89</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9624246508356177</v>
+        <v>0.9623899454130282</v>
       </c>
       <c r="J29" t="n">
-        <v>3.624246508356177</v>
+        <v>3.623899454130282</v>
       </c>
     </row>
     <row r="30">
@@ -1569,22 +1569,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>119661026.8870035</v>
+        <v>119660164.4070035</v>
       </c>
       <c r="F30" t="n">
         <v>117010264.561572</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9081730329289956</v>
+        <v>0.9081673584193077</v>
       </c>
       <c r="H30" t="n">
         <v>0.89</v>
       </c>
       <c r="I30" t="n">
-        <v>1.020419138122467</v>
+        <v>1.020412762268885</v>
       </c>
       <c r="J30" t="n">
-        <v>4.102095690612335</v>
+        <v>4.102063811344425</v>
       </c>
     </row>
     <row r="31">
@@ -1607,22 +1607,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>105075977.6619274</v>
+        <v>105073800.7319274</v>
       </c>
       <c r="F31" t="n">
         <v>111682433.9605242</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8424599754697929</v>
+        <v>0.8424456500210948</v>
       </c>
       <c r="H31" t="n">
         <v>0.89</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9465842421008909</v>
+        <v>0.9465681460911178</v>
       </c>
       <c r="J31" t="n">
-        <v>3.465842421008908</v>
+        <v>3.465681460911178</v>
       </c>
     </row>
     <row r="32">
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>82302363.08579449</v>
+        <v>82299103.02579449</v>
       </c>
       <c r="F32" t="n">
         <v>94880257.41010959</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7971857672590184</v>
+        <v>0.7971585494879623</v>
       </c>
       <c r="H32" t="n">
         <v>0.89</v>
       </c>
       <c r="I32" t="n">
-        <v>0.895714345234852</v>
+        <v>0.8956837634696205</v>
       </c>
       <c r="J32" t="n">
-        <v>2.95714345234852</v>
+        <v>2.956837634696205</v>
       </c>
     </row>
     <row r="33">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>136801094.5418332</v>
+        <v>136797710.0918332</v>
       </c>
       <c r="F33" t="n">
         <v>137809074.1561278</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8931152052976102</v>
+        <v>0.8930962017384564</v>
       </c>
       <c r="H33" t="n">
         <v>0.89</v>
       </c>
       <c r="I33" t="n">
-        <v>1.003500230671472</v>
+        <v>1.003478878357816</v>
       </c>
       <c r="J33" t="n">
-        <v>4.017501153357361</v>
+        <v>4.017394391789081</v>
       </c>
     </row>
     <row r="34">
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>153139183.0122509</v>
+        <v>153138336.1722509</v>
       </c>
       <c r="F34" t="n">
         <v>134355460.5747979</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9988135843717695</v>
+        <v>0.9988084469077108</v>
       </c>
       <c r="H34" t="n">
         <v>0.89</v>
       </c>
       <c r="I34" t="n">
-        <v>1.122262454350303</v>
+        <v>1.122256681918776</v>
       </c>
       <c r="J34" t="n">
-        <v>4.611312271751514</v>
+        <v>4.61128340959388</v>
       </c>
     </row>
     <row r="35">
@@ -1759,22 +1759,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>175438903.7270766</v>
+        <v>175436888.5270766</v>
       </c>
       <c r="F35" t="n">
         <v>168446709.6281984</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9293080200402157</v>
+        <v>0.9292979333655048</v>
       </c>
       <c r="H35" t="n">
         <v>0.89</v>
       </c>
       <c r="I35" t="n">
-        <v>1.044166314651928</v>
+        <v>1.044154981309556</v>
       </c>
       <c r="J35" t="n">
-        <v>4.220831573259639</v>
+        <v>4.22077490654778</v>
       </c>
     </row>
     <row r="36">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>82251506.40648702</v>
+        <v>82250323.95648701</v>
       </c>
       <c r="F36" t="n">
         <v>104736640.5867384</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7068405210367279</v>
+        <v>0.7068314174073408</v>
       </c>
       <c r="H36" t="n">
         <v>0.89</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7942028326255369</v>
+        <v>0.7941926038284728</v>
       </c>
       <c r="J36" t="n">
-        <v>1.942028326255369</v>
+        <v>1.941926038284727</v>
       </c>
     </row>
     <row r="37">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>162359039.9861201</v>
+        <v>162357647.4261201</v>
       </c>
       <c r="F37" t="n">
         <v>141476159.9742091</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9445870042970784</v>
+        <v>0.9445786124553286</v>
       </c>
       <c r="H37" t="n">
         <v>0.89</v>
       </c>
       <c r="I37" t="n">
-        <v>1.061333712693346</v>
+        <v>1.061324283657673</v>
       </c>
       <c r="J37" t="n">
-        <v>4.306668563466732</v>
+        <v>4.306621418288363</v>
       </c>
     </row>
     <row r="38">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>90300355.03646094</v>
+        <v>90299671.96646093</v>
       </c>
       <c r="F38" t="n">
         <v>113627871.6649346</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7099465573823305</v>
+        <v>0.7099416008423126</v>
       </c>
       <c r="H38" t="n">
         <v>0.89</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7976927611037421</v>
+        <v>0.7976871919576546</v>
       </c>
       <c r="J38" t="n">
-        <v>1.976927611037421</v>
+        <v>1.976871919576545</v>
       </c>
     </row>
     <row r="39">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>141681329.9742207</v>
+        <v>141679400.6042207</v>
       </c>
       <c r="F39" t="n">
         <v>120791921.8167148</v>
@@ -1949,22 +1949,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>62648599.8217824</v>
+        <v>62646598.22178239</v>
       </c>
       <c r="F40" t="n">
         <v>80038071.63383159</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7074142017742172</v>
+        <v>0.7073942329165901</v>
       </c>
       <c r="H40" t="n">
         <v>0.89</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7948474177238396</v>
+        <v>0.7948249808051574</v>
       </c>
       <c r="J40" t="n">
-        <v>1.948474177238396</v>
+        <v>1.948249808051574</v>
       </c>
     </row>
     <row r="41">
@@ -1987,19 +1987,19 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>43748401.81958635</v>
+        <v>43746140.91958635</v>
       </c>
       <c r="F41" t="n">
         <v>92174455.34797724</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4755358930252838</v>
+        <v>0.4755168051358007</v>
       </c>
       <c r="H41" t="n">
         <v>0.89</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5343099921632402</v>
+        <v>0.5342885450964052</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2025,22 +2025,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>90361411.33627719</v>
+        <v>90361400.83627719</v>
       </c>
       <c r="F42" t="n">
         <v>94413327.98665605</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8490998002245929</v>
+        <v>0.8490997089421417</v>
       </c>
       <c r="H42" t="n">
         <v>0.89</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9540447193534751</v>
+        <v>0.9540446167889233</v>
       </c>
       <c r="J42" t="n">
-        <v>3.540447193534751</v>
+        <v>3.540446167889232</v>
       </c>
     </row>
     <row r="43">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>120671865.3554689</v>
+        <v>120671238.5954689</v>
       </c>
       <c r="F43" t="n">
         <v>127509170.5920955</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8307149443586885</v>
+        <v>0.8307111393275053</v>
       </c>
       <c r="H43" t="n">
         <v>0.89</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9333875779311107</v>
+        <v>0.9333833026151744</v>
       </c>
       <c r="J43" t="n">
-        <v>3.333875779311107</v>
+        <v>3.333833026151744</v>
       </c>
     </row>
     <row r="44">
@@ -2101,22 +2101,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>98768333.40231903</v>
+        <v>98766016.35231903</v>
       </c>
       <c r="F44" t="n">
         <v>102600893.6886257</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8509581029815236</v>
+        <v>0.8509400559594731</v>
       </c>
       <c r="H44" t="n">
         <v>0.89</v>
       </c>
       <c r="I44" t="n">
-        <v>0.95613269997924</v>
+        <v>0.9561124224263743</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5613269997924</v>
+        <v>3.561124224263743</v>
       </c>
     </row>
     <row r="45">
@@ -2139,22 +2139,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>95535030.32909513</v>
+        <v>95532712.82909513</v>
       </c>
       <c r="F45" t="n">
         <v>107671717.2085639</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7707713801981722</v>
+        <v>0.770754665821667</v>
       </c>
       <c r="H45" t="n">
         <v>0.89</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8660352586496316</v>
+        <v>0.8660164784513111</v>
       </c>
       <c r="J45" t="n">
-        <v>2.660352586496316</v>
+        <v>2.660164784513111</v>
       </c>
     </row>
     <row r="46">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>105685186.2622774</v>
+        <v>105683854.1122774</v>
       </c>
       <c r="F46" t="n">
         <v>111901328.5535488</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8433105007196008</v>
+        <v>0.8433008201541166</v>
       </c>
       <c r="H46" t="n">
         <v>0.89</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9475398884489896</v>
+        <v>0.9475290114091197</v>
       </c>
       <c r="J46" t="n">
-        <v>3.475398884489896</v>
+        <v>3.475290114091197</v>
       </c>
     </row>
     <row r="47">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>223336833.283953</v>
+        <v>223334510.633953</v>
       </c>
       <c r="F47" t="n">
         <v>188727217.8411566</v>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>314565950.0699344</v>
+        <v>314563176.6221774</v>
       </c>
       <c r="F48" t="n">
         <v>243551915.481291</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>207779451.5501094</v>
+        <v>207777890.6601094</v>
       </c>
       <c r="F49" t="n">
         <v>164760222.1457199</v>
@@ -2329,19 +2329,19 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>92612115.93282256</v>
+        <v>92610627.51282255</v>
       </c>
       <c r="F50" t="n">
         <v>173044629.7514047</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5239577086209515</v>
+        <v>0.5239510461798251</v>
       </c>
       <c r="H50" t="n">
         <v>0.89</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5887165265403949</v>
+        <v>0.5887090406514889</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>142807190.6664413</v>
+        <v>142806449.6164413</v>
       </c>
       <c r="F51" t="n">
         <v>134171619.8690608</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9402571224325803</v>
+        <v>0.9402526422151505</v>
       </c>
       <c r="H51" t="n">
         <v>0.89</v>
       </c>
       <c r="I51" t="n">
-        <v>1.05646867689054</v>
+        <v>1.056463642938371</v>
       </c>
       <c r="J51" t="n">
-        <v>4.282343384452698</v>
+        <v>4.282318214691857</v>
       </c>
     </row>
     <row r="52">
@@ -2405,19 +2405,19 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>95685617.74679455</v>
+        <v>95684430.14679456</v>
       </c>
       <c r="F52" t="n">
         <v>172508567.4307234</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5348652104360638</v>
+        <v>0.5348599051628161</v>
       </c>
       <c r="H52" t="n">
         <v>0.89</v>
       </c>
       <c r="I52" t="n">
-        <v>0.6009721465573751</v>
+        <v>0.6009661855761979</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -2443,19 +2443,19 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>54438569.09599362</v>
+        <v>54438329.69599362</v>
       </c>
       <c r="F53" t="n">
         <v>88792389.62756148</v>
       </c>
       <c r="G53" t="n">
-        <v>0.5826083991878922</v>
+        <v>0.5826062625099567</v>
       </c>
       <c r="H53" t="n">
         <v>0.89</v>
       </c>
       <c r="I53" t="n">
-        <v>0.6546161788628002</v>
+        <v>0.654613778101075</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -2481,22 +2481,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>107144843.585981</v>
+        <v>107140818.935981</v>
       </c>
       <c r="F54" t="n">
         <v>109053993.1632859</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8785201316742117</v>
+        <v>0.8784896608305919</v>
       </c>
       <c r="H54" t="n">
         <v>0.89</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9871012715440581</v>
+        <v>0.9870670346411144</v>
       </c>
       <c r="J54" t="n">
-        <v>3.871012715440581</v>
+        <v>3.870670346411145</v>
       </c>
     </row>
     <row r="55">
@@ -2519,22 +2519,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>116962017.3745919</v>
+        <v>116961272.7445919</v>
       </c>
       <c r="F55" t="n">
         <v>112971401.9625315</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9297001209826257</v>
+        <v>0.9296945252144675</v>
       </c>
       <c r="H55" t="n">
         <v>0.89</v>
       </c>
       <c r="I55" t="n">
-        <v>1.044606877508568</v>
+        <v>1.044600590128615</v>
       </c>
       <c r="J55" t="n">
-        <v>4.223034387542841</v>
+        <v>4.223002950643076</v>
       </c>
     </row>
     <row r="56">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>82963707.31339502</v>
+        <v>82963634.87339503</v>
       </c>
       <c r="F56" t="n">
         <v>89323759.77886447</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8472362800345959</v>
+        <v>0.8472356380115016</v>
       </c>
       <c r="H56" t="n">
         <v>0.89</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9519508764433662</v>
+        <v>0.9519501550691029</v>
       </c>
       <c r="J56" t="n">
-        <v>3.519508764433662</v>
+        <v>3.519501550691028</v>
       </c>
     </row>
     <row r="57">
@@ -2595,22 +2595,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>97632684.17672022</v>
+        <v>97631184.90672022</v>
       </c>
       <c r="F57" t="n">
         <v>103578774.306118</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8455963988698996</v>
+        <v>0.8455846235108966</v>
       </c>
       <c r="H57" t="n">
         <v>0.89</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9501083133369658</v>
+        <v>0.950095082596513</v>
       </c>
       <c r="J57" t="n">
-        <v>3.501083133369657</v>
+        <v>3.50095082596513</v>
       </c>
     </row>
     <row r="58">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>171389900.5011972</v>
+        <v>171387970.6111972</v>
       </c>
       <c r="F58" t="n">
         <v>156982750.4553905</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9784565228794381</v>
+        <v>0.9784453572696362</v>
       </c>
       <c r="H58" t="n">
         <v>0.89</v>
       </c>
       <c r="I58" t="n">
-        <v>1.09938935154993</v>
+        <v>1.099376805920939</v>
       </c>
       <c r="J58" t="n">
-        <v>4.496946757749653</v>
+        <v>4.496884029604697</v>
       </c>
     </row>
     <row r="59">
@@ -2671,22 +2671,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>86091767.63130836</v>
+        <v>86091995.96130838</v>
       </c>
       <c r="F59" t="n">
         <v>95615909.9440902</v>
       </c>
       <c r="G59" t="n">
-        <v>0.8064626441230586</v>
+        <v>0.8064645842212346</v>
       </c>
       <c r="H59" t="n">
         <v>0.89</v>
       </c>
       <c r="I59" t="n">
-        <v>0.906137802385459</v>
+        <v>0.9061399822710501</v>
       </c>
       <c r="J59" t="n">
-        <v>3.06137802385459</v>
+        <v>3.061399822710501</v>
       </c>
     </row>
     <row r="60">
@@ -2709,22 +2709,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>117043917.8028808</v>
+        <v>117042005.4828808</v>
       </c>
       <c r="F60" t="n">
         <v>117884388.1226259</v>
       </c>
       <c r="G60" t="n">
-        <v>0.8842315121285507</v>
+        <v>0.8842173571575402</v>
       </c>
       <c r="H60" t="n">
         <v>0.89</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9935185529534277</v>
+        <v>0.9935026484916182</v>
       </c>
       <c r="J60" t="n">
-        <v>3.935185529534277</v>
+        <v>3.935026484916182</v>
       </c>
     </row>
     <row r="61">
@@ -2747,22 +2747,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>88028640.35288391</v>
+        <v>88028359.56288391</v>
       </c>
       <c r="F61" t="n">
         <v>91542268.61350612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.8573661957627396</v>
+        <v>0.8573636147889374</v>
       </c>
       <c r="H61" t="n">
         <v>0.89</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9633328042277973</v>
+        <v>0.9633299042572331</v>
       </c>
       <c r="J61" t="n">
-        <v>3.633328042277973</v>
+        <v>3.633299042572331</v>
       </c>
     </row>
     <row r="62">
@@ -2785,22 +2785,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>94541244.5206399</v>
+        <v>94541543.52063988</v>
       </c>
       <c r="F62" t="n">
         <v>90608812.5388387</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9238636861292148</v>
+        <v>0.9238665471688302</v>
       </c>
       <c r="H62" t="n">
         <v>0.89</v>
       </c>
       <c r="I62" t="n">
-        <v>1.038049085538443</v>
+        <v>1.038052300189697</v>
       </c>
       <c r="J62" t="n">
-        <v>4.190245427692218</v>
+        <v>4.190261500948484</v>
       </c>
     </row>
     <row r="63">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>176243855.6917159</v>
+        <v>176243267.3017159</v>
       </c>
       <c r="F63" t="n">
         <v>126975951.0218852</v>
@@ -2861,22 +2861,22 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>40442041.31292522</v>
+        <v>40441894.46292522</v>
       </c>
       <c r="F64" t="n">
         <v>56455463.81355108</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6617860551235774</v>
+        <v>0.6617839006713224</v>
       </c>
       <c r="H64" t="n">
         <v>0.89</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7435798372175026</v>
+        <v>0.7435774164846319</v>
       </c>
       <c r="J64" t="n">
-        <v>1.435798372175026</v>
+        <v>1.435774164846319</v>
       </c>
     </row>
     <row r="65">
@@ -2975,19 +2975,19 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25842913.2551819</v>
+        <v>25842633.9551819</v>
       </c>
       <c r="F67" t="n">
         <v>47248362.76197601</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5190398322936369</v>
+        <v>0.5190350815419186</v>
       </c>
       <c r="H67" t="n">
         <v>0.89</v>
       </c>
       <c r="I67" t="n">
-        <v>0.5831908228018392</v>
+        <v>0.5831854848785601</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -3013,19 +3013,19 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26223006.99240684</v>
+        <v>26221867.94240684</v>
       </c>
       <c r="F68" t="n">
         <v>44962149.31711112</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5579807807683387</v>
+        <v>0.5579610431099584</v>
       </c>
       <c r="H68" t="n">
         <v>0.89</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6269446974925154</v>
+        <v>0.6269225203482679</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>201312409.7176738</v>
+        <v>201308085.5576738</v>
       </c>
       <c r="F69" t="n">
         <v>149996048.7392875</v>
@@ -3089,22 +3089,22 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>118378002.1332763</v>
+        <v>118375599.4932763</v>
       </c>
       <c r="F70" t="n">
         <v>113156462.8311546</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9333187006516718</v>
+        <v>0.9333001294994565</v>
       </c>
       <c r="H70" t="n">
         <v>0.89</v>
       </c>
       <c r="I70" t="n">
-        <v>1.048672697361429</v>
+        <v>1.048651830898266</v>
       </c>
       <c r="J70" t="n">
-        <v>4.243363486807144</v>
+        <v>4.243259154491329</v>
       </c>
     </row>
     <row r="71">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>79949822.39410657</v>
+        <v>79949723.39410657</v>
       </c>
       <c r="F73" t="n">
         <v>82993729.38318424</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8632044767113745</v>
+        <v>0.8632034381992335</v>
       </c>
       <c r="H73" t="n">
         <v>0.89</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9698926704622185</v>
+        <v>0.9698915035946444</v>
       </c>
       <c r="J73" t="n">
-        <v>3.698926704622185</v>
+        <v>3.698915035946444</v>
       </c>
     </row>
     <row r="74">
@@ -3241,22 +3241,22 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>90554372.7663326</v>
+        <v>90554016.53633259</v>
       </c>
       <c r="F74" t="n">
         <v>95834267.9943136</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8449370403597215</v>
+        <v>0.8449338655325229</v>
       </c>
       <c r="H74" t="n">
         <v>0.89</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9493674610783388</v>
+        <v>0.9493638938567673</v>
       </c>
       <c r="J74" t="n">
-        <v>3.493674610783388</v>
+        <v>3.493638938567673</v>
       </c>
     </row>
     <row r="75">
@@ -3279,22 +3279,22 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>66271574.18548144</v>
+        <v>66271359.47548145</v>
       </c>
       <c r="F75" t="n">
         <v>81325526.61626299</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7413715199069855</v>
+        <v>0.7413691985822296</v>
       </c>
       <c r="H75" t="n">
         <v>0.89</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8330017077606579</v>
+        <v>0.832999099530595</v>
       </c>
       <c r="J75" t="n">
-        <v>2.330017077606578</v>
+        <v>2.32999099530595</v>
       </c>
     </row>
     <row r="76">
@@ -3355,22 +3355,22 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>42249891.63001486</v>
+        <v>42249402.33001487</v>
       </c>
       <c r="F77" t="n">
         <v>58909756.25182363</v>
       </c>
       <c r="G77" t="n">
-        <v>0.6614341172272418</v>
+        <v>0.6614271528851376</v>
       </c>
       <c r="H77" t="n">
         <v>0.89</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7431844013789233</v>
+        <v>0.7431765762754355</v>
       </c>
       <c r="J77" t="n">
-        <v>1.431844013789233</v>
+        <v>1.431765762754355</v>
       </c>
     </row>
     <row r="78">
@@ -3393,19 +3393,19 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>30255094.20749045</v>
+        <v>30254938.22749045</v>
       </c>
       <c r="F78" t="n">
         <v>49490079.08540335</v>
       </c>
       <c r="G78" t="n">
-        <v>0.58200218488717</v>
+        <v>0.581999472121592</v>
       </c>
       <c r="H78" t="n">
         <v>0.89</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6539350391990675</v>
+        <v>0.6539319911478562</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>135009769.9504777</v>
+        <v>135008790.9404777</v>
       </c>
       <c r="F79" t="n">
         <v>109412062.7393765</v>
@@ -3469,22 +3469,22 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>105105053.3938171</v>
+        <v>105103470.3938171</v>
       </c>
       <c r="F80" t="n">
         <v>95341630.18895757</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9795550433199174</v>
+        <v>0.9795397619463193</v>
       </c>
       <c r="H80" t="n">
         <v>0.89</v>
       </c>
       <c r="I80" t="n">
-        <v>1.100623644179682</v>
+        <v>1.100606474096988</v>
       </c>
       <c r="J80" t="n">
-        <v>4.503118220898412</v>
+        <v>4.50303237048494</v>
       </c>
     </row>
     <row r="81">
@@ -3507,22 +3507,22 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50920209.55121745</v>
+        <v>50919823.23121745</v>
       </c>
       <c r="F81" t="n">
         <v>61847726.38573384</v>
       </c>
       <c r="G81" t="n">
-        <v>0.7452985915356294</v>
+        <v>0.7452928138846115</v>
       </c>
       <c r="H81" t="n">
         <v>0.89</v>
       </c>
       <c r="I81" t="n">
-        <v>0.837414147792842</v>
+        <v>0.8374076560501253</v>
       </c>
       <c r="J81" t="n">
-        <v>2.374141477928419</v>
+        <v>2.374076560501253</v>
       </c>
     </row>
     <row r="82">
@@ -3545,22 +3545,22 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>57326069.4537167</v>
+        <v>57325644.64371669</v>
       </c>
       <c r="F82" t="n">
         <v>67087350.5323498</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7644396674725987</v>
+        <v>0.7644342306105291</v>
       </c>
       <c r="H82" t="n">
         <v>0.89</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8589209746883132</v>
+        <v>0.858914865854527</v>
       </c>
       <c r="J82" t="n">
-        <v>2.589209746883132</v>
+        <v>2.58914865854527</v>
       </c>
     </row>
     <row r="83">
@@ -3583,22 +3583,22 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36477077.30311</v>
+        <v>36476578.30311</v>
       </c>
       <c r="F83" t="n">
         <v>50838004.43768134</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6549627718935211</v>
+        <v>0.6549541535072437</v>
       </c>
       <c r="H83" t="n">
         <v>0.89</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7359132268466529</v>
+        <v>0.7359035432665659</v>
       </c>
       <c r="J83" t="n">
-        <v>1.35913226846653</v>
+        <v>1.359035432665659</v>
       </c>
     </row>
     <row r="84">
@@ -3621,19 +3621,19 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>32558245.48347563</v>
+        <v>32557995.98347563</v>
       </c>
       <c r="F84" t="n">
         <v>49199033.93287361</v>
       </c>
       <c r="G84" t="n">
-        <v>0.6202352284940444</v>
+        <v>0.6202307326657437</v>
       </c>
       <c r="H84" t="n">
         <v>0.89</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6968935151618477</v>
+        <v>0.696888463669375</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>33117201.41898901</v>
+        <v>33117138.41898901</v>
       </c>
       <c r="F85" t="n">
         <v>48313555.18222613</v>
       </c>
       <c r="G85" t="n">
-        <v>0.633528264645112</v>
+        <v>0.6335271290848336</v>
       </c>
       <c r="H85" t="n">
         <v>0.89</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7118295108372045</v>
+        <v>0.7118282349267793</v>
       </c>
       <c r="J85" t="n">
-        <v>1.118295108372045</v>
+        <v>1.118282349267793</v>
       </c>
     </row>
     <row r="86">
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>130902913.8622893</v>
+        <v>130902920.2822893</v>
       </c>
       <c r="F86" t="n">
         <v>105760507.3103067</v>
@@ -3773,22 +3773,22 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>92434526.9029455</v>
+        <v>92434461.27294551</v>
       </c>
       <c r="F88" t="n">
         <v>90208020.64646971</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9070254254072316</v>
+        <v>0.9070248112386141</v>
       </c>
       <c r="H88" t="n">
         <v>0.89</v>
       </c>
       <c r="I88" t="n">
-        <v>1.0191296914688</v>
+        <v>1.019129001391701</v>
       </c>
       <c r="J88" t="n">
-        <v>4.095648457343998</v>
+        <v>4.095645006958506</v>
       </c>
     </row>
     <row r="89">
@@ -3849,22 +3849,22 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>66483728.20855617</v>
+        <v>66483729.70855618</v>
       </c>
       <c r="F90" t="n">
         <v>66089387.80594691</v>
       </c>
       <c r="G90" t="n">
-        <v>0.8957607521200819</v>
+        <v>0.8957607716823002</v>
       </c>
       <c r="H90" t="n">
         <v>0.89</v>
       </c>
       <c r="I90" t="n">
-        <v>1.006472755191103</v>
+        <v>1.006472777171124</v>
       </c>
       <c r="J90" t="n">
-        <v>4.032363775955516</v>
+        <v>4.032363885855618</v>
       </c>
     </row>
     <row r="91">
@@ -3887,22 +3887,22 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>90010697.62153871</v>
+        <v>90010069.22153871</v>
       </c>
       <c r="F91" t="n">
         <v>70069200.74876533</v>
       </c>
       <c r="G91" t="n">
-        <v>0.8498973347872105</v>
+        <v>0.8498875569696944</v>
       </c>
       <c r="H91" t="n">
         <v>0.89</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9549408256036073</v>
+        <v>0.9549298392917914</v>
       </c>
       <c r="J91" t="n">
-        <v>3.549408256036072</v>
+        <v>3.549298392917914</v>
       </c>
     </row>
     <row r="92">
@@ -3925,22 +3925,22 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>91696103.59410709</v>
+        <v>91696645.07410708</v>
       </c>
       <c r="F92" t="n">
         <v>115202124.4046157</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7215187992693559</v>
+        <v>0.7215230762559545</v>
       </c>
       <c r="H92" t="n">
         <v>0.89</v>
       </c>
       <c r="I92" t="n">
-        <v>0.810695280077928</v>
+        <v>0.8107000856808477</v>
       </c>
       <c r="J92" t="n">
-        <v>2.10695280077928</v>
+        <v>2.107000856808477</v>
       </c>
     </row>
     <row r="93">
@@ -4001,22 +4001,22 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>51633057.76148725</v>
+        <v>51632458.26148725</v>
       </c>
       <c r="F94" t="n">
         <v>55874471.63218673</v>
       </c>
       <c r="G94" t="n">
-        <v>0.8290034800332486</v>
+        <v>0.8289942021087862</v>
       </c>
       <c r="H94" t="n">
         <v>0.89</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9314645843070209</v>
+        <v>0.9314541596727934</v>
       </c>
       <c r="J94" t="n">
-        <v>3.314645843070209</v>
+        <v>3.314541596727934</v>
       </c>
     </row>
     <row r="95">
@@ -4039,22 +4039,22 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>87688533.66069061</v>
+        <v>87686946.16069059</v>
       </c>
       <c r="F95" t="n">
         <v>91843760.34551205</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8527461752015124</v>
+        <v>0.8527303526148575</v>
       </c>
       <c r="H95" t="n">
         <v>0.89</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9581417698893397</v>
+        <v>0.9581239917020871</v>
       </c>
       <c r="J95" t="n">
-        <v>3.581417698893397</v>
+        <v>3.58123991702087</v>
       </c>
     </row>
     <row r="96">
@@ -4077,22 +4077,22 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>99905806.23809505</v>
+        <v>99904368.30809504</v>
       </c>
       <c r="F96" t="n">
         <v>88371287.93142432</v>
       </c>
       <c r="G96" t="n">
-        <v>0.985203028848184</v>
+        <v>0.9851895742622304</v>
       </c>
       <c r="H96" t="n">
         <v>0.89</v>
       </c>
       <c r="I96" t="n">
-        <v>1.106969695335038</v>
+        <v>1.106954577822731</v>
       </c>
       <c r="J96" t="n">
-        <v>4.53484847667519</v>
+        <v>4.534772889113654</v>
       </c>
     </row>
     <row r="97">
@@ -4115,22 +4115,22 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>52037546.27903447</v>
+        <v>52035957.52903447</v>
       </c>
       <c r="F97" t="n">
         <v>69523964.77065295</v>
       </c>
       <c r="G97" t="n">
-        <v>0.6755566487727855</v>
+        <v>0.675537542683493</v>
       </c>
       <c r="H97" t="n">
         <v>0.89</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7590524143514444</v>
+        <v>0.7590309468353853</v>
       </c>
       <c r="J97" t="n">
-        <v>1.590524143514444</v>
+        <v>1.590309468353853</v>
       </c>
     </row>
     <row r="98">
@@ -4153,22 +4153,22 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>65950218.00219706</v>
+        <v>65949999.70219705</v>
       </c>
       <c r="F98" t="n">
         <v>73541444.66427927</v>
       </c>
       <c r="G98" t="n">
-        <v>0.8020639676311064</v>
+        <v>0.8020616375814275</v>
       </c>
       <c r="H98" t="n">
         <v>0.89</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9011954692484342</v>
+        <v>0.901192851215087</v>
       </c>
       <c r="J98" t="n">
-        <v>3.011954692484342</v>
+        <v>3.011928512150869</v>
       </c>
     </row>
     <row r="99">
@@ -4191,7 +4191,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>166284433.2320957</v>
+        <v>166284235.1520957</v>
       </c>
       <c r="F99" t="n">
         <v>127118031.3032409</v>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>183136529.2416902</v>
+        <v>183134094.0616902</v>
       </c>
       <c r="F100" t="n">
         <v>109854747.4675233</v>
@@ -4267,22 +4267,22 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>91480893.77739772</v>
+        <v>91480354.73739772</v>
       </c>
       <c r="F101" t="n">
         <v>123744311.4936379</v>
       </c>
       <c r="G101" t="n">
-        <v>0.6726052899724591</v>
+        <v>0.6726017201310857</v>
       </c>
       <c r="H101" t="n">
         <v>0.89</v>
       </c>
       <c r="I101" t="n">
-        <v>0.7557362808679315</v>
+        <v>0.7557322698102086</v>
       </c>
       <c r="J101" t="n">
-        <v>1.557362808679315</v>
+        <v>1.557322698102086</v>
       </c>
     </row>
     <row r="102">
@@ -4343,22 +4343,22 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>122640193.6302266</v>
+        <v>122638276.6502266</v>
       </c>
       <c r="F103" t="n">
         <v>109033144.5166031</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9905123039626302</v>
+        <v>0.9904968691548813</v>
       </c>
       <c r="H103" t="n">
         <v>0.89</v>
       </c>
       <c r="I103" t="n">
-        <v>1.112935172991719</v>
+        <v>1.112917830511103</v>
       </c>
       <c r="J103" t="n">
-        <v>4.564675864958597</v>
+        <v>4.564589152555514</v>
       </c>
     </row>
     <row r="104">
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>149119129.782887</v>
+        <v>149118877.822887</v>
       </c>
       <c r="F106" t="n">
         <v>101215003.6269733</v>
@@ -4533,19 +4533,19 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>21885516.39015748</v>
+        <v>21885366.39015748</v>
       </c>
       <c r="F108" t="n">
         <v>46370006.99221984</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4679137555762259</v>
+        <v>0.467910923913736</v>
       </c>
       <c r="H108" t="n">
         <v>0.89</v>
       </c>
       <c r="I108" t="n">
-        <v>0.5257457927822763</v>
+        <v>0.5257426111390292</v>
       </c>
       <c r="J108" t="n">
         <v>1</v>
@@ -4571,22 +4571,22 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>49811357.17933351</v>
+        <v>49810958.17933351</v>
       </c>
       <c r="F109" t="n">
         <v>61063156.09430858</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7326788936328754</v>
+        <v>0.7326733419047329</v>
       </c>
       <c r="H109" t="n">
         <v>0.89</v>
       </c>
       <c r="I109" t="n">
-        <v>0.823234711947051</v>
+        <v>0.8232284740502617</v>
       </c>
       <c r="J109" t="n">
-        <v>2.23234711947051</v>
+        <v>2.232284740502616</v>
       </c>
     </row>
     <row r="110">
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>187477254.782768</v>
+        <v>187476868.462768</v>
       </c>
       <c r="F110" t="n">
         <v>128422737.5095977</v>
@@ -4685,19 +4685,19 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34723633.64607076</v>
+        <v>34723608.14607076</v>
       </c>
       <c r="F112" t="n">
         <v>57157592.81425899</v>
       </c>
       <c r="G112" t="n">
-        <v>0.5816453323896256</v>
+        <v>0.5816449536524257</v>
       </c>
       <c r="H112" t="n">
         <v>0.89</v>
       </c>
       <c r="I112" t="n">
-        <v>0.6535340813366579</v>
+        <v>0.6535336557892424</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
@@ -4723,19 +4723,19 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28540336.46404672</v>
+        <v>28540094.78404672</v>
       </c>
       <c r="F113" t="n">
         <v>47499682.86355478</v>
       </c>
       <c r="G113" t="n">
-        <v>0.5582143250497533</v>
+        <v>0.558209659921421</v>
       </c>
       <c r="H113" t="n">
         <v>0.89</v>
       </c>
       <c r="I113" t="n">
-        <v>0.6272071067974756</v>
+        <v>0.6272018650802483</v>
       </c>
       <c r="J113" t="n">
         <v>1</v>
@@ -4805,13 +4805,13 @@
         <v>48894517.96797831</v>
       </c>
       <c r="G115" t="n">
-        <v>0.5921105319429348</v>
+        <v>0.5921105319429349</v>
       </c>
       <c r="H115" t="n">
         <v>0.89</v>
       </c>
       <c r="I115" t="n">
-        <v>0.6652927325201515</v>
+        <v>0.6652927325201516</v>
       </c>
       <c r="J115" t="n">
         <v>1</v>
